--- a/run.xlsx
+++ b/run.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13650" tabRatio="759" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="759" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="223">
   <si>
     <t>git</t>
   </si>
@@ -896,6 +896,21 @@
     <t>C:\wamp64\www\phptest</t>
   </si>
   <si>
+    <t>★★★★★</t>
+  </si>
+  <si>
+    <t>C:\wamp64\www\my-lvadmin</t>
+  </si>
+  <si>
+    <t>自己的 laravel 全栈学习</t>
+  </si>
+  <si>
+    <t>C:\wamp64\www\laravel-admin-master</t>
+  </si>
+  <si>
+    <t>上面的参考</t>
+  </si>
+  <si>
     <t>F:\JavaProject\study</t>
   </si>
   <si>
@@ -919,9 +934,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -1030,7 +1045,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,13 +1053,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,8 +1066,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,9 +1104,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,16 +1157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,13 +1167,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,7 +1187,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,13 +1307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,49 +1331,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,103 +1361,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,21 +1390,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1406,6 +1406,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1416,6 +1431,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1447,21 +1477,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1477,31 +1492,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1513,112 +1528,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2280,10 +2295,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2326,12 +2341,31 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>79</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B13" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2359,10 +2393,10 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2370,15 +2404,15 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2450,7 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +2894,7 @@
   <sheetPr/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
